--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
 </t>
   </si>
   <si>
@@ -1568,7 +1568,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-moyen-ressource-codesystem"/&gt;
-    &lt;code value="type"/&gt;
+    &lt;code value="titre"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1660,7 +1660,7 @@
     <t>evaluationNonStructuree</t>
   </si>
   <si>
-    <t>EValuation non structurée</t>
+    <t>Evaluation non structurée</t>
   </si>
   <si>
     <t>evaluationNonStructureeMoyenRessource</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,6 +610,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>https://identifiant-medicosocial-moyenressource.esante.gouv.fr</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -730,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3901,10 +3904,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3940,7 +3943,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3961,21 +3964,21 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3983,7 +3986,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -4001,13 +4004,13 @@
         <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4021,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4057,7 +4060,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4078,21 +4081,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4115,13 +4118,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4172,7 +4175,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4193,21 +4196,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4230,16 +4233,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4289,7 +4292,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4310,21 +4313,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4347,17 +4350,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4406,7 +4409,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4424,10 +4427,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4467,14 +4470,14 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4523,7 +4526,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4541,10 +4544,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4555,10 +4558,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4581,13 +4584,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4638,7 +4641,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4653,13 +4656,13 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4699,14 +4702,14 @@
         <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4755,7 +4758,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4773,10 +4776,10 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4787,10 +4790,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4813,19 +4816,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4874,7 +4877,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4889,13 +4892,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4906,10 +4909,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4935,14 +4938,14 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4970,10 +4973,10 @@
         <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4991,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5009,13 +5012,13 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5023,10 +5026,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5052,13 +5055,13 @@
         <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5084,10 +5087,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5108,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5129,7 +5132,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5140,10 +5143,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5169,14 +5172,14 @@
         <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5201,10 +5204,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5225,7 +5228,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5246,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5257,10 +5260,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5286,13 +5289,13 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5321,10 +5324,10 @@
         <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5342,7 +5345,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5360,13 +5363,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5374,10 +5377,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5403,20 +5406,20 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
@@ -5440,10 +5443,10 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5461,7 +5464,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5479,13 +5482,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5493,10 +5496,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5522,13 +5525,13 @@
         <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5554,13 +5557,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5578,7 +5581,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5593,16 +5596,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5639,10 +5642,10 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5693,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5708,13 +5711,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5725,10 +5728,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5751,19 +5754,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5812,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5833,10 +5836,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5844,14 +5847,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5870,17 +5873,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5929,7 +5932,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5947,13 +5950,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5961,10 +5964,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5987,17 +5990,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6046,7 +6049,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6064,13 +6067,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6078,10 +6081,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6104,13 +6107,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6161,7 +6164,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6179,13 +6182,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6193,10 +6196,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6308,10 +6311,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6425,10 +6428,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6451,16 +6454,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6510,7 +6513,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6519,33 +6522,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6568,23 +6571,23 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
@@ -6629,7 +6632,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6638,37 +6641,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6687,17 +6690,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6746,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6755,7 +6758,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6764,13 +6767,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6778,14 +6781,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6804,17 +6807,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6863,7 +6866,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6872,7 +6875,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6884,7 +6887,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6895,10 +6898,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6921,17 +6924,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6980,7 +6983,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6998,13 +7001,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7041,14 +7044,14 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7076,10 +7079,10 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7097,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7115,13 +7118,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7129,14 +7132,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7155,19 +7158,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7216,7 +7219,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7234,13 +7237,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7248,10 +7251,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7274,17 +7277,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7333,7 +7336,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7351,13 +7354,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7365,10 +7368,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7394,13 +7397,13 @@
         <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7426,10 +7429,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7450,7 +7453,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7468,24 +7471,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7508,16 +7511,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7567,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7585,13 +7588,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7599,10 +7602,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7625,13 +7628,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7682,7 +7685,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7700,24 +7703,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7740,13 +7743,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7797,7 +7800,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7815,10 +7818,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7829,14 +7832,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7855,16 +7858,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7914,7 +7917,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7932,10 +7935,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7946,10 +7949,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7972,17 +7975,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8031,7 +8034,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8052,7 +8055,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8063,10 +8066,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8178,10 +8181,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8295,14 +8298,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8324,10 +8327,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8382,7 +8385,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8414,10 +8417,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8440,17 +8443,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8499,7 +8502,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8520,7 +8523,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8531,10 +8534,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8557,19 +8560,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8618,7 +8621,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8639,7 +8642,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8650,10 +8653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8676,13 +8679,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8733,7 +8736,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8754,7 +8757,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8765,14 +8768,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8791,17 +8794,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8841,7 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
@@ -8848,7 +8851,7 @@
         <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8869,7 +8872,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8880,10 +8883,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8995,10 +8998,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9112,14 +9115,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9141,10 +9144,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -9199,7 +9202,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9231,14 +9234,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9260,16 +9263,16 @@
         <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9294,10 +9297,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9318,7 +9321,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9339,7 +9342,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9350,10 +9353,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9376,13 +9379,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9433,7 +9436,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9454,7 +9457,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9465,16 +9468,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9493,17 +9496,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9552,7 +9555,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9567,13 +9570,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9584,10 +9587,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9699,10 +9702,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9816,14 +9819,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9845,10 +9848,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -9903,7 +9906,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9935,14 +9938,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9964,16 +9967,16 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9983,7 +9986,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -9998,10 +10001,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10022,7 +10025,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -10043,7 +10046,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10054,10 +10057,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10083,10 +10086,10 @@
         <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10137,7 +10140,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>89</v>
@@ -10158,7 +10161,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10169,16 +10172,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10197,17 +10200,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10256,7 +10259,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10271,13 +10274,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10288,10 +10291,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10403,10 +10406,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10520,14 +10523,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10549,10 +10552,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10607,7 +10610,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10639,14 +10642,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10668,16 +10671,16 @@
         <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10687,7 +10690,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10702,10 +10705,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10726,7 +10729,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>89</v>
@@ -10747,7 +10750,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10758,10 +10761,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10784,13 +10787,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10841,7 +10844,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10862,7 +10865,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10873,16 +10876,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10901,17 +10904,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10960,7 +10963,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10975,13 +10978,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10992,10 +10995,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11107,10 +11110,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11224,14 +11227,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11253,10 +11256,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>138</v>
@@ -11311,7 +11314,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11343,14 +11346,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11372,16 +11375,16 @@
         <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11391,7 +11394,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11406,10 +11409,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11430,7 +11433,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11451,7 +11454,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11462,10 +11465,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11488,13 +11491,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11545,7 +11548,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11566,7 +11569,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11577,16 +11580,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11605,17 +11608,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11664,7 +11667,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11679,13 +11682,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11696,10 +11699,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11811,10 +11814,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11928,14 +11931,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11957,10 +11960,10 @@
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>138</v>
@@ -12015,7 +12018,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12047,14 +12050,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12076,16 +12079,16 @@
         <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12095,7 +12098,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12110,10 +12113,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12134,7 +12137,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -12155,7 +12158,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12166,10 +12169,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12192,13 +12195,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12249,7 +12252,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12270,7 +12273,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12281,10 +12284,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12307,17 +12310,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12366,7 +12369,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12387,7 +12390,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12398,10 +12401,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12513,10 +12516,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12630,14 +12633,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12659,10 +12662,10 @@
         <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12717,7 +12720,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12749,14 +12752,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12778,14 +12781,14 @@
         <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12810,10 +12813,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12834,7 +12837,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12855,7 +12858,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12866,10 +12869,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12892,17 +12895,17 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12951,7 +12954,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -12972,7 +12975,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="560">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,7 +481,7 @@
     <t>The business identifier for this task.</t>
   </si>
   <si>
-    <t>identifiantMoyenRessource</t>
+    <t>idMoyenRessource</t>
   </si>
   <si>
     <t>Request.identifier, Event.identifier</t>
@@ -937,16 +937,74 @@
     <t>http://hl7.org/fhir/ValueSet/task-code|4.0.1</t>
   </si>
   <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.code.id</t>
+  </si>
+  <si>
+    <t>Task.code.extension</t>
+  </si>
+  <si>
+    <t>Task.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Task.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
     <t>typeMoyenRessource</t>
   </si>
   <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Task.description</t>
@@ -1585,7 +1643,7 @@
     <t>evaluation</t>
   </si>
   <si>
-    <t>Evaluation structurée</t>
+    <t>Evaluation</t>
   </si>
   <si>
     <t>evaluationMoyenRessource</t>
@@ -1655,41 +1713,6 @@
   <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
 </t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree</t>
-  </si>
-  <si>
-    <t>evaluationNonStructuree</t>
-  </si>
-  <si>
-    <t>Evaluation non structurée</t>
-  </si>
-  <si>
-    <t>evaluationNonStructureeMoyenRessource</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.id</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.extension</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-moyen-ressource-codesystem"/&gt;
-    &lt;code value="evaluationNonStructuree"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.value[x]</t>
   </si>
   <si>
     <t>Task.output</t>
@@ -2042,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2051,9 +2074,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2086,11 +2109,11 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5596,16 +5619,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5613,10 +5636,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5636,16 +5659,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5696,7 +5719,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>158</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5708,16 +5731,16 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5728,21 +5751,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5751,23 +5774,21 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5803,31 +5824,31 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5836,10 +5857,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5847,21 +5868,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5873,17 +5894,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5932,13 +5955,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5950,24 +5973,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5990,17 +6013,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6049,7 +6074,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6064,27 +6089,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6107,13 +6132,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6164,7 +6189,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6179,16 +6204,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6221,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6219,19 +6244,23 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6279,7 +6308,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6320,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6300,10 +6329,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6311,21 +6340,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6334,21 +6363,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6384,43 +6413,43 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>159</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6428,10 +6457,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6454,18 +6483,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6513,7 +6542,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6522,33 +6551,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6571,24 +6600,20 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N39" t="s" s="2">
         <v>352</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6632,7 +6657,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6641,37 +6666,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6690,18 +6715,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6749,7 +6772,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6758,22 +6781,22 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>159</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6781,21 +6804,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6804,21 +6827,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6854,31 +6877,31 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6887,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6898,10 +6921,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6924,18 +6947,18 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6983,7 +7006,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6992,33 +7015,33 @@
         <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7029,7 +7052,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7038,25 +7061,27 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="R43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7076,13 +7101,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7100,46 +7125,46 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7155,22 +7180,20 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7219,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7228,7 +7251,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -7237,13 +7260,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7251,14 +7274,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7277,17 +7300,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7336,7 +7359,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7345,7 +7368,7 @@
         <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>101</v>
@@ -7354,13 +7377,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7368,10 +7391,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7391,21 +7414,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7429,10 +7452,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7453,7 +7476,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7471,24 +7494,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7499,7 +7522,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7511,18 +7534,18 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7546,13 +7569,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7570,13 +7593,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7588,13 +7611,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7602,21 +7625,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7625,19 +7648,23 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7685,13 +7712,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7703,24 +7730,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7731,7 +7758,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7740,19 +7767,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7800,13 +7829,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7818,13 +7847,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7832,21 +7861,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7858,16 +7887,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7893,10 +7922,10 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7917,13 +7946,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7935,24 +7964,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7975,18 +8004,18 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8034,7 +8063,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8052,13 +8081,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8066,10 +8095,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8080,7 +8109,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8092,13 +8121,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>156</v>
+        <v>442</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>157</v>
+        <v>443</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8149,46 +8178,46 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>158</v>
+        <v>440</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8207,17 +8236,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8266,7 +8293,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>165</v>
+        <v>447</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8278,16 +8305,16 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8298,14 +8325,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8318,26 +8345,24 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8385,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8397,16 +8422,16 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>132</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8417,10 +8442,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8443,17 +8468,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8502,7 +8527,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8523,7 +8548,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8534,10 +8559,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8560,20 +8585,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>462</v>
+        <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8621,7 +8642,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>158</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8633,7 +8654,7 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8642,7 +8663,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8653,14 +8674,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8679,15 +8700,17 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8736,7 +8759,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>467</v>
+        <v>165</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8748,7 +8771,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8757,7 +8780,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>471</v>
+        <v>159</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8768,18 +8791,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8788,23 +8811,25 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>476</v>
+        <v>144</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8841,17 +8866,19 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8863,7 +8890,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8872,7 +8899,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8883,10 +8910,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8909,16 +8936,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>156</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>157</v>
+        <v>477</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8966,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>474</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8978,7 +9007,7 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8987,7 +9016,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9005,14 +9034,14 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9024,18 +9053,20 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9083,19 +9114,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>480</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9104,7 +9135,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>159</v>
+        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9115,14 +9146,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9135,26 +9166,22 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9202,7 +9229,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9214,7 +9241,7 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9223,7 +9250,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>490</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9234,21 +9261,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9260,19 +9287,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9297,10 +9322,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9309,25 +9334,23 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9342,7 +9365,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9353,10 +9376,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9364,7 +9387,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9379,13 +9402,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9436,10 +9459,10 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -9448,7 +9471,7 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9457,7 +9480,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9468,23 +9491,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9496,18 +9517,18 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>136</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9555,7 +9576,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9567,16 +9588,16 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9587,42 +9608,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9670,19 +9695,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9691,7 +9716,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9702,21 +9727,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9728,18 +9753,20 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9763,10 +9790,10 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9787,19 +9814,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9808,7 +9835,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9819,46 +9846,42 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9906,19 +9929,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9927,7 +9950,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9938,14 +9961,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="D68" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9964,19 +9989,17 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9986,7 +10009,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10001,10 +10024,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10025,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -10040,13 +10063,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10057,10 +10080,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10068,7 +10091,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -10086,10 +10109,10 @@
         <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10140,10 +10163,10 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>89</v>
@@ -10152,7 +10175,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10161,7 +10184,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10172,23 +10195,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10200,18 +10221,18 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10259,7 +10280,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10271,16 +10292,16 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10291,42 +10312,46 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10374,19 +10399,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10395,7 +10420,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10406,21 +10431,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10432,18 +10457,20 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>136</v>
+        <v>503</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10452,7 +10479,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10467,10 +10494,10 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10491,19 +10518,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10512,7 +10539,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10523,46 +10550,42 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10610,19 +10633,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10631,7 +10654,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10642,18 +10665,20 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="D74" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -10668,19 +10693,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10690,7 +10713,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>511</v>
+        <v>78</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10705,10 +10728,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10729,13 +10752,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10744,13 +10767,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10761,10 +10784,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10772,7 +10795,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10787,13 +10810,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>513</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10844,10 +10867,10 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>89</v>
@@ -10856,7 +10879,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10865,7 +10888,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10876,16 +10899,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10904,18 +10925,18 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>516</v>
+        <v>136</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10963,7 +10984,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10975,16 +10996,16 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10995,42 +11016,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11078,19 +11103,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11099,7 +11124,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11110,21 +11135,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11136,18 +11161,20 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>503</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11156,7 +11183,7 @@
         <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>78</v>
+        <v>530</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>78</v>
@@ -11171,10 +11198,10 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11195,19 +11222,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11216,7 +11243,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11227,46 +11254,42 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>532</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11314,19 +11337,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11335,7 +11358,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11346,21 +11369,23 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="D80" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11372,19 +11397,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11394,7 +11417,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11409,10 +11432,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11433,13 +11456,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11448,13 +11471,13 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11465,10 +11488,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11476,7 +11499,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>89</v>
@@ -11491,13 +11514,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>524</v>
+        <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11548,10 +11571,10 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>89</v>
@@ -11560,7 +11583,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11569,7 +11592,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11580,23 +11603,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11608,18 +11629,18 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>527</v>
+        <v>136</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11667,7 +11688,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11679,16 +11700,16 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>528</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11699,42 +11720,46 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11782,19 +11807,19 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11803,7 +11828,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11814,21 +11839,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11840,18 +11865,20 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>136</v>
+        <v>503</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11860,7 +11887,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>78</v>
+        <v>541</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>78</v>
@@ -11875,10 +11902,10 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11899,19 +11926,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11920,7 +11947,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11931,46 +11958,42 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>543</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12018,19 +12041,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12039,7 +12062,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12050,21 +12073,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12076,19 +12099,17 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12098,7 +12119,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12113,10 +12134,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12137,13 +12158,13 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
@@ -12158,7 +12179,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12169,10 +12190,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12180,7 +12201,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -12195,13 +12216,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>524</v>
+        <v>155</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12252,10 +12273,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -12264,7 +12285,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12273,7 +12294,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12284,14 +12305,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12310,18 +12331,18 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>536</v>
+        <v>136</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12369,7 +12390,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>535</v>
+        <v>165</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12381,7 +12402,7 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12390,7 +12411,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12401,42 +12422,46 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12484,19 +12509,19 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12505,7 +12530,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12516,21 +12541,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12542,18 +12567,18 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>136</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12577,10 +12602,10 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>78</v>
+        <v>555</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>78</v>
@@ -12601,19 +12626,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>165</v>
+        <v>551</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12622,7 +12647,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12633,45 +12658,43 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>557</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>144</v>
+        <v>559</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12720,19 +12743,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>454</v>
+        <v>556</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12741,246 +12764,12 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO93" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-moyen-ressource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
